--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>TOPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,121 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E8" s="3">
         <v>29800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19700</v>
       </c>
-      <c r="G8" s="3">
-        <v>20400</v>
-      </c>
       <c r="H8" s="3">
+        <v>39400</v>
+      </c>
+      <c r="I8" s="3">
         <v>19000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1500</v>
       </c>
       <c r="N8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
@@ -781,66 +788,72 @@
         <v>500</v>
       </c>
       <c r="H9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E10" s="3">
         <v>27600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19200</v>
       </c>
-      <c r="G10" s="3">
-        <v>19900</v>
-      </c>
       <c r="H10" s="3">
+        <v>38400</v>
+      </c>
+      <c r="I10" s="3">
         <v>18500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>16400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -855,8 +868,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +907,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,13 +948,16 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>15500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -945,14 +965,14 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -961,54 +981,60 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E15" s="3">
         <v>5300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3000</v>
       </c>
       <c r="G15" s="3">
         <v>3000</v>
       </c>
       <c r="H15" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I15" s="3">
         <v>2800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,84 +1046,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E17" s="3">
         <v>24400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23200</v>
       </c>
-      <c r="G17" s="3">
-        <v>18200</v>
-      </c>
       <c r="H17" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I17" s="3">
         <v>19500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>11800</v>
       </c>
       <c r="J17" s="3">
         <v>11800</v>
       </c>
       <c r="K17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L17" s="3">
         <v>10400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3500</v>
       </c>
-      <c r="G18" s="3">
-        <v>2200</v>
-      </c>
       <c r="H18" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1112,84 +1145,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-9700</v>
-      </c>
       <c r="H20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-7300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1220,52 +1260,58 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-7500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1302,8 +1348,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1340,84 +1389,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6600</v>
       </c>
-      <c r="G26" s="3">
-        <v>-7500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6600</v>
       </c>
-      <c r="G27" s="3">
-        <v>-7600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1454,8 +1512,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1492,8 +1553,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1530,8 +1594,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1568,84 +1635,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
-        <v>9700</v>
-      </c>
       <c r="H32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I32" s="3">
         <v>5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6600</v>
       </c>
-      <c r="G33" s="3">
-        <v>-7600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1682,89 +1758,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6600</v>
       </c>
-      <c r="G35" s="3">
-        <v>-7600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1779,8 +1864,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,46 +1881,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1871,28 +1961,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -1900,25 +1993,28 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="3">
-        <v>600</v>
+      <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
@@ -1927,125 +2023,134 @@
         <v>600</v>
       </c>
       <c r="H44" s="3">
+        <v>600</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E45" s="3">
         <v>10100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E46" s="3">
         <v>12800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E47" s="3">
         <v>22500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>11200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2061,46 +2166,52 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>354600</v>
+      </c>
+      <c r="E48" s="3">
         <v>383300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>181300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>152900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>156000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>159100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>127300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>97100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>39600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2248,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2175,8 +2289,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2213,46 +2330,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>49800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>39400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>11400</v>
       </c>
       <c r="I52" s="3">
         <v>11400</v>
       </c>
       <c r="J52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K52" s="3">
         <v>20700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>36700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>47600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>34700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,46 +2412,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>444900</v>
+      </c>
+      <c r="E54" s="3">
         <v>423000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>258500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>219300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>220400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>187300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>143300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>121700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>74000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>75600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2343,8 +2472,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2359,236 +2489,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3">
         <v>4100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E58" s="3">
         <v>266200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>25400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E59" s="3">
         <v>30700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E60" s="3">
         <v>297000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>35600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>262100</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>117000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>80500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>84300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>91800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>72500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>58400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>18000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>5700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2625,8 +2774,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2663,8 +2815,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2701,46 +2856,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>339100</v>
+      </c>
+      <c r="E66" s="3">
         <v>329300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>154200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>120600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>114400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>114500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>96100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>83100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2755,8 +2916,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2793,8 +2955,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2831,13 +2996,16 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>18100</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2849,14 +3017,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>400</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>1700</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2869,8 +3037,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2907,46 +3078,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>-322600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3">
         <v>-307800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-303300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-296600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-289100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-283200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-284000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-284300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>-275800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-278200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2983,8 +3160,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3021,8 +3201,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3059,46 +3242,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E76" s="3">
         <v>93700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>104300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>98700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>106100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>72400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3135,89 +3324,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6600</v>
       </c>
-      <c r="G81" s="3">
-        <v>-7600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3232,8 +3430,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3252,26 +3451,29 @@
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3308,8 +3510,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3384,8 +3592,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3422,8 +3633,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3460,46 +3674,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3514,46 +3734,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-43000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20600</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="H91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3">
         <v>-24600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48800</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3590,8 +3814,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3628,46 +3855,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3">
         <v>-42800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25600</v>
       </c>
-      <c r="G94" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H94" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-55900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>21400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3682,8 +3915,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3720,8 +3954,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3758,8 +3995,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3796,8 +4036,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3834,46 +4077,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="3">
         <v>43100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
-        <v>24900</v>
-      </c>
       <c r="H100" s="3">
+        <v>83400</v>
+      </c>
+      <c r="I100" s="3">
         <v>58500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>20700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>47200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3898,54 +4147,60 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23300</v>
       </c>
-      <c r="G102" s="3">
-        <v>23600</v>
-      </c>
       <c r="H102" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>TOPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,195 +665,208 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E8" s="3">
         <v>36300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>29800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1500</v>
       </c>
       <c r="O8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
       </c>
       <c r="H9" s="3">
+        <v>500</v>
+      </c>
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E10" s="3">
         <v>35500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>19200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>38400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>18500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>16400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +882,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,8 +924,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,31 +968,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>15500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -984,57 +1004,63 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E15" s="3">
         <v>7100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,90 +1073,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E17" s="3">
         <v>40900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>11800</v>
       </c>
       <c r="K17" s="3">
         <v>11800</v>
       </c>
       <c r="L17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M17" s="3">
         <v>10400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1146,90 +1179,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>4300</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1263,55 +1303,61 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1351,8 +1397,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1392,90 +1441,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-13400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1515,8 +1573,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1556,8 +1617,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1597,8 +1661,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1638,90 +1705,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E32" s="3">
         <v>9600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1761,95 +1837,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1865,8 +1950,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1882,49 +1968,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1964,31 +2054,34 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3">
         <v>900</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -1996,28 +2089,31 @@
       <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3">
-        <v>600</v>
+      <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
         <v>600</v>
@@ -2026,134 +2122,143 @@
         <v>600</v>
       </c>
       <c r="I44" s="3">
+        <v>600</v>
+      </c>
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>44800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E46" s="3">
         <v>50700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>29100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E47" s="3">
         <v>19300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>21600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11200</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2169,49 +2274,55 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>363200</v>
+      </c>
+      <c r="E48" s="3">
         <v>354600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>383300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>181300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>152900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>156000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>159100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>127300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>97100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>39600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2251,8 +2362,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2292,8 +2406,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,49 +2450,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E52" s="3">
         <v>20200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>49800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>39400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>11400</v>
       </c>
       <c r="J52" s="3">
         <v>11400</v>
       </c>
       <c r="K52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L52" s="3">
         <v>20700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>36700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>47600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>34700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2415,49 +2538,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>430700</v>
+      </c>
+      <c r="E54" s="3">
         <v>444900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>423000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>258500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>219300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>220400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>187300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>143300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2473,8 +2602,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2490,254 +2620,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3">
         <v>4100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E58" s="3">
         <v>46900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>266200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E59" s="3">
         <v>24100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E60" s="3">
         <v>75400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>297000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>35600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>20000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>261800</v>
+      </c>
+      <c r="E61" s="3">
         <v>262100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>117000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>80500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>84300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>91800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>72500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>58400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>18000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3">
         <v>5700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2777,8 +2926,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2818,8 +2970,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2859,49 +3014,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>290500</v>
+      </c>
+      <c r="E66" s="3">
         <v>339100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>329300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>154200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>120600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>114400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>114500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>96100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2917,8 +3078,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2958,8 +3120,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2999,17 +3164,20 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E70" s="3">
         <v>18100</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -3020,14 +3188,14 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>1700</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3040,8 +3208,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3081,49 +3252,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-325400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-322600</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3">
         <v>-307800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-303300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-296600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-289100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-283200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-284000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-284300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>-275800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-278200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3163,8 +3340,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3204,8 +3384,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3245,49 +3428,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E76" s="3">
         <v>87700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>93700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>104300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>98700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>106100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,95 +3516,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3431,8 +3629,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3454,26 +3653,29 @@
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3554,8 +3759,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3595,8 +3803,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3636,8 +3847,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3677,49 +3891,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>-300</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3735,49 +3955,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-90900</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-43000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48800</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3817,8 +4041,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3858,49 +4085,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>11300</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3">
         <v>-42800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-55900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3916,8 +4149,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3957,8 +4191,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4039,8 +4279,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4080,49 +4323,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-12700</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
         <v>43100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>83400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>58500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>20700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>47200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4150,57 +4399,63 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-1700</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>TOPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,221 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E8" s="3">
         <v>32600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>36300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>29800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1500</v>
       </c>
       <c r="P8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>500</v>
       </c>
       <c r="I9" s="3">
+        <v>500</v>
+      </c>
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E10" s="3">
         <v>31400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>35500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>27600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>19200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>38400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>18500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -883,8 +896,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -927,8 +941,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,34 +988,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>15500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1007,60 +1027,66 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E15" s="3">
         <v>7200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1074,96 +1100,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E17" s="3">
         <v>24300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>11800</v>
       </c>
       <c r="L17" s="3">
         <v>11800</v>
       </c>
       <c r="M17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="N17" s="3">
         <v>10400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E18" s="3">
         <v>8300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1180,96 +1213,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4300</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1306,58 +1346,64 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1400,8 +1446,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1444,96 +1493,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-13400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1576,8 +1634,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1620,8 +1681,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1664,8 +1728,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1708,96 +1775,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E32" s="3">
         <v>11200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1840,101 +1916,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1951,8 +2036,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1969,52 +2055,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2057,34 +2147,37 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2092,31 +2185,34 @@
       <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
-        <v>600</v>
+      <c r="F44" s="3">
+        <v>800</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="3">
         <v>600</v>
@@ -2125,143 +2221,152 @@
         <v>600</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3">
         <v>300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E46" s="3">
         <v>8100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>29100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E47" s="3">
         <v>27700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11200</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2277,52 +2382,58 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E48" s="3">
         <v>363200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>354600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>383300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>181300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>152900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>156000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>159100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>127300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>97100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2365,8 +2476,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2409,8 +2523,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2453,52 +2570,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E52" s="3">
         <v>31700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>49800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>11400</v>
       </c>
       <c r="K52" s="3">
         <v>11400</v>
       </c>
       <c r="L52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="M52" s="3">
         <v>20700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>36700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>47600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>34700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2541,52 +2664,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E54" s="3">
         <v>430700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>444900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>423000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>258500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>219300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>220400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>187300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>143300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>50400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2603,8 +2732,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2621,272 +2751,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3">
         <v>4100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E58" s="3">
         <v>16800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>46900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>266200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E59" s="3">
         <v>8600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E60" s="3">
         <v>28600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>297000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>35600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>25600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>20000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E61" s="3">
         <v>261800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>262100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>117000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>80500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>84300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>91800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>72500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>58400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>18000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>34100</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3">
         <v>5700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2929,8 +3078,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2973,8 +3125,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3017,52 +3172,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E66" s="3">
         <v>290500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>339100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>329300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>154200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>120600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>114400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>114500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>96100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3079,8 +3240,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3123,8 +3285,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3167,8 +3332,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3176,11 +3344,11 @@
         <v>13500</v>
       </c>
       <c r="E70" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F70" s="3">
         <v>18100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -3191,14 +3359,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1700</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3211,8 +3379,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3255,52 +3426,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-345400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-325400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-322600</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3">
         <v>-307800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-303300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-296600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-289100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-283200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-284000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-284300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>-275800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-278200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3343,8 +3520,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3387,8 +3567,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3431,52 +3614,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>120700</v>
+      </c>
+      <c r="E76" s="3">
         <v>126700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>87700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>93700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>104300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>98700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>106100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3519,101 +3708,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3630,52 +3828,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3718,8 +3920,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +3967,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3806,8 +4014,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3850,8 +4061,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3894,52 +4108,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3956,52 +4176,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-90900</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
         <v>-43000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6800</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-24600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48800</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-6500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,8 +4268,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4088,52 +4315,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>170000</v>
+      </c>
+      <c r="E94" s="3">
         <v>11300</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3">
         <v>-42800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-55900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>21400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4150,8 +4383,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4194,8 +4428,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4238,8 +4475,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4282,8 +4522,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4326,52 +4569,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-164600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12700</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3">
         <v>43100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>83400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>58500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>20700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4402,60 +4651,66 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>TOPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,234 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E8" s="3">
         <v>27600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>32600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>36300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>29800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1500</v>
       </c>
       <c r="Q8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>500</v>
       </c>
       <c r="J9" s="3">
+        <v>500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E10" s="3">
         <v>26800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>35500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>27600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>19200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>38400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>18500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -897,8 +910,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -991,37 +1008,40 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>15500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1030,63 +1050,69 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E15" s="3">
         <v>6000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1101,102 +1127,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E17" s="3">
         <v>37800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>11800</v>
       </c>
       <c r="M17" s="3">
         <v>11800</v>
       </c>
       <c r="N17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="O17" s="3">
         <v>10400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1214,102 +1247,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4300</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,61 +1389,67 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1449,8 +1495,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1496,102 +1545,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-8000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1637,8 +1695,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1684,8 +1745,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1731,8 +1795,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1778,102 +1845,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>9800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1919,107 +1995,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2037,8 +2122,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2056,55 +2142,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2150,37 +2240,40 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2188,34 +2281,37 @@
       <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>800</v>
       </c>
       <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3">
-        <v>600</v>
+      <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
@@ -2224,152 +2320,161 @@
         <v>600</v>
       </c>
       <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E45" s="3">
         <v>25200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E46" s="3">
         <v>45100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E47" s="3">
         <v>28200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>27700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11200</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2385,55 +2490,61 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>274400</v>
+      </c>
+      <c r="E48" s="3">
         <v>182100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>363200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>354600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>383300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>181300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>152900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>156000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>159100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>127300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>97100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2479,8 +2590,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2526,8 +2640,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2573,55 +2690,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E52" s="3">
         <v>37700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>31700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>49800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>39400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>11400</v>
       </c>
       <c r="L52" s="3">
         <v>11400</v>
       </c>
       <c r="M52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="N52" s="3">
         <v>20700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>36700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>47600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>34700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2667,55 +2790,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>353100</v>
+      </c>
+      <c r="E54" s="3">
         <v>293000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>430700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>444900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>423000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>258500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>219300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>220400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>187300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>143300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>50400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2733,8 +2862,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2752,8 +2882,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,281 +2892,299 @@
         <v>2500</v>
       </c>
       <c r="E57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3">
         <v>4100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E58" s="3">
         <v>5300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>46900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>266200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E59" s="3">
         <v>17500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E60" s="3">
         <v>25400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>297000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>35600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>25600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E61" s="3">
         <v>99300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>261800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>262100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>117000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>80500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>84300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>91800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>72500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>58400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>18000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E62" s="3">
         <v>34100</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q62" s="3">
         <v>5700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3081,8 +3230,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3128,8 +3280,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3175,55 +3330,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E66" s="3">
         <v>158800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>290500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>339100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>329300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>154200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>120600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>114400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>114500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>96100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3241,8 +3402,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3288,8 +3450,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3335,8 +3500,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3347,11 +3515,11 @@
         <v>13500</v>
       </c>
       <c r="F70" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G70" s="3">
         <v>18100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -3362,14 +3530,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1700</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3382,8 +3550,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3429,55 +3600,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-343700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-345400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-325400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-322600</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
         <v>-307800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-303300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-296600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-289100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-283200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-284000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-284300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-275800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-278200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3523,8 +3700,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3570,8 +3750,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3617,55 +3800,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E76" s="3">
         <v>120700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>126700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>87700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>93700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>104300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>98700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>106100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3711,107 +3900,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3829,8 +4027,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3855,29 +4054,32 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3923,8 +4125,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3970,8 +4175,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4017,8 +4225,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4064,8 +4275,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4111,55 +4325,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4177,55 +4397,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-98300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-90900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3">
         <v>-43000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-24600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48800</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4271,8 +4495,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4318,55 +4545,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="E94" s="3">
         <v>170000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3">
         <v>-42800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>21400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4384,8 +4617,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4431,8 +4665,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4478,8 +4715,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4525,8 +4765,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4572,55 +4815,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-164600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12700</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3">
         <v>43100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>83400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>58500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>20700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>47200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>24800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-19900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4654,63 +4903,69 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E102" s="3">
         <v>11700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>TOPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,221 +678,247 @@
     <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F8" s="3">
         <v>25300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>27600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>32600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>36300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>29800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>21400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>19700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>39400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>19000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>16800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>8400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>800</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1200</v>
       </c>
       <c r="G9" s="3">
         <v>800</v>
       </c>
       <c r="H9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>800</v>
+      </c>
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
-      </c>
-      <c r="J9" s="3">
-        <v>500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1000</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>500</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F10" s="3">
         <v>24700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>26800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>31400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>35500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>27600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>20900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>19200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>18500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>16400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>11300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>8200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +937,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,8 +989,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1011,34 +1045,40 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>15500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1046,73 +1086,85 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F15" s="3">
         <v>3300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>6000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>7200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>7100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>3400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>5700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1128,108 +1180,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F17" s="3">
         <v>21100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>37800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>24300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>40900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>24400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>21800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>23200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>37700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>19500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>11800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>10100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-10200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>8300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,108 +1314,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-9800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-11200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-9600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-4400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-13900</v>
+        <v>14700</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
+        <v>-8200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-6700</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>-4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-10400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,64 +1472,76 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-14100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1498,8 +1590,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1548,108 +1646,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-20000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-14100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-13400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-20800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-15800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-15200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1698,8 +1814,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1748,8 +1870,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1798,8 +1926,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1848,108 +1982,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>9800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>11200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>9600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>4400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-20800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-15800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-15200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1998,113 +2150,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-20800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-15800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-15200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2123,8 +2293,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2143,58 +2315,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>24100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2243,244 +2423,274 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>700</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
-        <v>600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>600</v>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
       </c>
       <c r="L44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M44" s="3">
         <v>600</v>
       </c>
       <c r="N44" s="3">
+        <v>700</v>
+      </c>
+      <c r="O44" s="3">
+        <v>600</v>
+      </c>
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>72200</v>
+      </c>
+      <c r="F45" s="3">
         <v>26500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>25200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>44800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>10100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>2700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>75300</v>
+      </c>
+      <c r="F46" s="3">
         <v>35700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>45100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>50700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>12800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>29100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F47" s="3">
         <v>33900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>28200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>27700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>19300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>22500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>22100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>21600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>17700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>11200</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2493,58 +2703,70 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>429800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>194400</v>
+      </c>
+      <c r="F48" s="3">
         <v>274400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>182100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>363200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>354600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>383300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>181300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>152900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>156000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>159100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>127300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>97100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>33400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>39600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2593,8 +2815,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2643,8 +2871,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2693,58 +2927,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F52" s="3">
         <v>9200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>37700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>31700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>20200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>49800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>39400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>17700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>11400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>20700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>36700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>47600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>34700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2793,58 +3039,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>475400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>330800</v>
+      </c>
+      <c r="F54" s="3">
         <v>353100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>293000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>430700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>444900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>423000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>258500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>219300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>220400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>187300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>143300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>121700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>74000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>50400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>75600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2863,8 +3121,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2883,308 +3143,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>4100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>60400</v>
+      </c>
+      <c r="F58" s="3">
         <v>29400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>16800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>46900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>266200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>23600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>25400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>19700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>13400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>12100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>12900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5200</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F59" s="3">
         <v>21100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>17500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>24100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>30700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>13100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>107100</v>
+      </c>
+      <c r="F60" s="3">
         <v>53100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>25400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>28600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>75400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>297000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>36800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>35600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>25600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>20000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>17600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>229500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>90200</v>
+      </c>
+      <c r="F61" s="3">
         <v>145700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>99300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>261800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>262100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>117000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>80500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>84300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>91800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>72500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>58400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>19100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>18000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F62" s="3">
         <v>29100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>34100</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>3600</v>
       </c>
       <c r="N62" s="3">
         <v>2000</v>
       </c>
       <c r="O62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3">
         <v>5700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3233,8 +3531,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3283,8 +3587,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3333,58 +3643,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>284300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>221400</v>
+      </c>
+      <c r="F66" s="3">
         <v>227900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>158800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>290500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>339100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>329300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>154200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>120600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>114400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>114500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>96100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>83100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>39900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>33000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3403,8 +3725,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3453,8 +3777,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3503,29 +3833,35 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>13500</v>
+        <v>102500</v>
       </c>
       <c r="E70" s="3">
-        <v>13500</v>
+        <v>16100</v>
       </c>
       <c r="F70" s="3">
         <v>13500</v>
       </c>
       <c r="G70" s="3">
+        <v>13500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I70" s="3">
         <v>18100</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -3533,17 +3869,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1700</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3553,8 +3889,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3603,58 +3945,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-328100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-336800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-343700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-345400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-325400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-322600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>-307800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-303300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-296600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-289100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-283200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-284000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-284300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>-275800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-278200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3703,8 +4057,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3753,8 +4113,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3803,58 +4169,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>93200</v>
+      </c>
+      <c r="F76" s="3">
         <v>111700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>120700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>126700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>87700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>93700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>104300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>98700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>106100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>72400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>45500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>38600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>34200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>37200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>42500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3903,113 +4281,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-20800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-15800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-15200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4028,58 +4424,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>13200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>2300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4128,8 +4532,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4178,8 +4588,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4228,8 +4644,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4700,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4328,58 +4756,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>9300</v>
-      </c>
-      <c r="E89" s="3">
-        <v>6300</v>
+        <v>13900</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
+        <v>3300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>6000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4398,58 +4838,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-98300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-29900</v>
+        <v>-216600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
-        <v>-90900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+        <v>22600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-120900</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-43000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-20600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-24600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-48800</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-6500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4498,8 +4946,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4548,58 +5002,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-90800</v>
-      </c>
-      <c r="E94" s="3">
-        <v>170000</v>
+        <v>-143100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+        <v>-272100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>181300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-42800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-25600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-59100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-55900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-25900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-51200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-22300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>21400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-5700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4618,8 +5084,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4668,8 +5136,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4718,8 +5192,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4768,8 +5248,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4818,58 +5304,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>70500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-164600</v>
+        <v>141000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+        <v>247800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-177300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>43100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>83400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>58500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>20700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>47200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>24800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4906,8 +5404,8 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4915,57 +5413,69 @@
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="E102" s="3">
-        <v>11700</v>
+        <v>11900</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
+        <v>-21000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>10100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-23300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>25000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>TOPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,260 +665,273 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42369</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42185</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E8" s="3">
         <v>38800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>27600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>32600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>29800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1500</v>
       </c>
       <c r="T8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
+        <v>500</v>
+      </c>
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
       <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E10" s="3">
         <v>37900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>24700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>31400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>27600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>19200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>18500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>11300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +952,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -995,8 +1009,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,8 +1068,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1063,34 +1083,34 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>15500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1099,72 +1119,78 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E15" s="3">
         <v>6100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>400</v>
       </c>
       <c r="T15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1182,120 +1208,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E17" s="3">
         <v>23700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>11800</v>
       </c>
       <c r="P17" s="3">
         <v>11800</v>
       </c>
       <c r="Q17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="R17" s="3">
         <v>10400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E18" s="3">
         <v>15100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-10200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1316,120 +1349,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-11200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>14700</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-8200</v>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G21" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>5000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>-4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1478,70 +1518,76 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E23" s="3">
         <v>8600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-14100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1596,8 +1642,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1652,120 +1701,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E26" s="3">
         <v>8600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1820,8 +1878,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1876,8 +1937,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1932,8 +1996,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1988,120 +2055,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E32" s="3">
         <v>6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>11200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2156,125 +2232,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42369</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42185</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2295,8 +2380,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2317,64 +2403,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E41" s="3">
         <v>14300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2429,46 +2519,49 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
       </c>
       <c r="M43" s="3">
         <v>600</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2476,43 +2569,46 @@
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
+        <v>700</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>800</v>
       </c>
       <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
-        <v>600</v>
+      <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3">
         <v>600</v>
@@ -2521,179 +2617,188 @@
         <v>600</v>
       </c>
       <c r="N44" s="3">
+        <v>600</v>
+      </c>
+      <c r="O44" s="3">
         <v>700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3">
         <v>300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>72200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E46" s="3">
         <v>16600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>75300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E47" s="3">
         <v>23000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11200</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2709,64 +2814,70 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>417800</v>
+      </c>
+      <c r="E48" s="3">
         <v>429800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>194400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>274400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>182100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>363200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>354600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>383300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>181300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>152900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>156000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>159100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>127300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>97100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>39600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2821,8 +2932,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2877,8 +2991,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2933,64 +3050,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E52" s="3">
         <v>6000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>37700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>31700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>39400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>11400</v>
       </c>
       <c r="O52" s="3">
         <v>11400</v>
       </c>
       <c r="P52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>20700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>47600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>34700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3045,64 +3168,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>469300</v>
+      </c>
+      <c r="E54" s="3">
         <v>475400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>330800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>353100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>293000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>430700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>444900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>423000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>258500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>219300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>187300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>143300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>121700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>50400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>75600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3123,8 +3252,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3145,344 +3275,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>2300</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
       </c>
       <c r="F57" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="G57" s="3">
         <v>2500</v>
       </c>
       <c r="H57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I57" s="3">
         <v>3200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>4100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4900</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>14900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>60400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>29400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>46900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>266200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>13400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>12100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
         <v>17700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>30700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
         <v>34900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>107100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>53100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>25400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>297000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>20000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>233700</v>
+      </c>
+      <c r="E61" s="3">
         <v>229500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>90200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>145700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>99300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>261800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>262100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>117000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>80500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>84300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>91800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>72500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>58400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>18000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E62" s="3">
         <v>19800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>34100</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" s="3">
         <v>5700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3537,8 +3686,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3593,8 +3745,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3649,64 +3804,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>272300</v>
+      </c>
+      <c r="E66" s="3">
         <v>284300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>221400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>227900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>158800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>290500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>339100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>329300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>154200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>120600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>114400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>114500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>96100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>83100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>39900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3727,8 +3888,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3783,8 +3945,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3839,19 +4004,22 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E70" s="3">
         <v>102500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>16100</v>
-      </c>
-      <c r="F70" s="3">
-        <v>13500</v>
       </c>
       <c r="G70" s="3">
         <v>13500</v>
@@ -3860,11 +4028,11 @@
         <v>13500</v>
       </c>
       <c r="I70" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J70" s="3">
         <v>18100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -3875,14 +4043,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1700</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3895,8 +4063,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3951,64 +4122,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
         <v>-328100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-336800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-343700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-345400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-325400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-322600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>-307800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-303300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-296600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-289100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-283200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-284000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-284300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>-275800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-278200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4063,8 +4240,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4119,8 +4299,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4175,64 +4358,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E76" s="3">
         <v>88600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>93200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>111700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>120700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>87700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>93700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>104300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>98700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>106100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>37200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4287,125 +4476,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42369</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42185</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4426,34 +4624,35 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>13200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4461,29 +4660,32 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>2300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4538,8 +4740,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4594,8 +4799,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4650,8 +4858,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4706,8 +4917,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4762,64 +4976,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3">
         <v>13900</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="3">
-        <v>3300</v>
+      <c r="F89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G89" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
+        <v>9300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4840,64 +5060,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-216600</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3">
-        <v>22600</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
-        <v>-120900</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+        <v>-98300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-90900</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-43000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-24600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48800</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4952,8 +5176,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5008,64 +5235,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
         <v>-143100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-272100</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
-        <v>181300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+        <v>-90800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>170000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>11300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-42800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-55900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-22300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>21400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5086,8 +5319,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5142,8 +5376,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5198,8 +5435,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5254,8 +5494,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5310,64 +5553,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3">
         <v>141000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3">
-        <v>247800</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
-        <v>-177300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+        <v>70500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-164600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-12700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>43100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>83400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>58500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>20700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>47200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>24800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-19900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5410,72 +5659,78 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
         <v>11900</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-21000</v>
+      <c r="F102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G102" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
+        <v>-10900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-1700</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>TOPS</t>
   </si>
@@ -1414,14 +1414,14 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>11400</v>
       </c>
       <c r="E21" s="3">
         <v>14700</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="F21" s="3">
+        <v>7900</v>
       </c>
       <c r="G21" s="3">
         <v>5000</v>
@@ -2527,8 +2527,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
@@ -2586,8 +2586,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>1000</v>
       </c>
       <c r="E44" s="3">
         <v>900</v>
@@ -2646,7 +2646,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
         <v>1100</v>
@@ -2705,7 +2705,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20500</v>
+        <v>22900</v>
       </c>
       <c r="E46" s="3">
         <v>16600</v>
@@ -2823,7 +2823,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>417800</v>
+        <v>418300</v>
       </c>
       <c r="E48" s="3">
         <v>429800</v>
@@ -3059,7 +3059,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8900</v>
+        <v>6000</v>
       </c>
       <c r="E52" s="3">
         <v>6000</v>
@@ -3281,8 +3281,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>2000</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
@@ -3340,8 +3340,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>12300</v>
       </c>
       <c r="E58" s="3">
         <v>14900</v>
@@ -3399,8 +3399,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>17900</v>
       </c>
       <c r="E59" s="3">
         <v>17700</v>
@@ -3458,8 +3458,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>32200</v>
       </c>
       <c r="E60" s="3">
         <v>34900</v>
@@ -3518,7 +3518,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>233700</v>
+        <v>221400</v>
       </c>
       <c r="E61" s="3">
         <v>229500</v>
@@ -3577,7 +3577,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38600</v>
+        <v>18700</v>
       </c>
       <c r="E62" s="3">
         <v>19800</v>
@@ -4130,8 +4130,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-317800</v>
       </c>
       <c r="E72" s="3">
         <v>-328100</v>
@@ -4984,14 +4984,14 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>19500</v>
       </c>
       <c r="E89" s="3">
         <v>13900</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+      <c r="F89" s="3">
+        <v>6700</v>
       </c>
       <c r="G89" s="3">
         <v>9300</v>
@@ -5066,14 +5066,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-216600</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+        <v>-101000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-17300</v>
       </c>
       <c r="G91" s="3">
         <v>-98300</v>
@@ -5084,8 +5084,8 @@
       <c r="I91" s="3">
         <v>-90900</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>-43000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5243,14 +5243,14 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>400</v>
       </c>
       <c r="E94" s="3">
         <v>-143100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="F94" s="3">
+        <v>14200</v>
       </c>
       <c r="G94" s="3">
         <v>-90800</v>
@@ -5561,14 +5561,14 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-13600</v>
       </c>
       <c r="E100" s="3">
         <v>141000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+      <c r="F100" s="3">
+        <v>-26900</v>
       </c>
       <c r="G100" s="3">
         <v>70500</v>
@@ -5679,14 +5679,14 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>6300</v>
       </c>
       <c r="E102" s="3">
         <v>11900</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+      <c r="F102" s="3">
+        <v>-6000</v>
       </c>
       <c r="G102" s="3">
         <v>-10900</v>

--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>TOPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,162 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42369</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42185</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42004</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E8" s="3">
         <v>41800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>38800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>27600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>32600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>29800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1500</v>
       </c>
       <c r="U8" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,117 +828,123 @@
         <v>800</v>
       </c>
       <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>500</v>
       </c>
       <c r="N9" s="3">
+        <v>500</v>
+      </c>
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E10" s="3">
         <v>41000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>24700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>19200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>18500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>11300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +966,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1012,8 +1026,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1071,13 +1088,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1086,34 +1106,34 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>15500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1122,16 +1142,19 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,58 +1162,61 @@
         <v>7200</v>
       </c>
       <c r="E15" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F15" s="3">
         <v>6100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>6000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>400</v>
       </c>
       <c r="U15" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1209,126 +1235,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E17" s="3">
         <v>24300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>37700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>11800</v>
       </c>
       <c r="Q17" s="3">
         <v>11800</v>
       </c>
       <c r="R17" s="3">
+        <v>11800</v>
+      </c>
+      <c r="S17" s="3">
         <v>10400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E18" s="3">
         <v>17500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1350,126 +1383,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-11200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E21" s="3">
         <v>11400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4300</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,73 +1561,79 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E23" s="3">
         <v>10300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1645,8 +1691,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1704,126 +1753,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E26" s="3">
         <v>10300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1881,8 +1939,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1940,8 +2001,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1999,8 +2063,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2058,126 +2125,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E32" s="3">
         <v>7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>11200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2235,131 +2311,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42369</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42185</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42004</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2381,8 +2466,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2404,67 +2490,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E41" s="3">
         <v>20500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2522,49 +2612,52 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
       </c>
       <c r="N43" s="3">
         <v>600</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2572,46 +2665,49 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>700</v>
       </c>
       <c r="H44" s="3">
+        <v>700</v>
+      </c>
+      <c r="I44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>800</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44" s="3">
-        <v>600</v>
+      <c r="K44" s="3">
+        <v>800</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>600</v>
@@ -2620,188 +2716,197 @@
         <v>600</v>
       </c>
       <c r="O44" s="3">
+        <v>600</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U44" s="3">
         <v>300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2100</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E46" s="3">
         <v>22900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>75300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>35700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>45100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E47" s="3">
         <v>22200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>33900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11200</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2817,67 +2922,73 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>406500</v>
+      </c>
+      <c r="E48" s="3">
         <v>418300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>429800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>194400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>274400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>182100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>363200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>354600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>383300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>181300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>152900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>156000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>159100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>127300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>97100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>39600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2935,8 +3046,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2994,8 +3108,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3053,8 +3170,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3065,55 +3185,58 @@
         <v>6000</v>
       </c>
       <c r="F52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G52" s="3">
         <v>36600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>37700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>11400</v>
       </c>
       <c r="P52" s="3">
         <v>11400</v>
       </c>
       <c r="Q52" s="3">
+        <v>11400</v>
+      </c>
+      <c r="R52" s="3">
         <v>20700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>47600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>34700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3171,67 +3294,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>446200</v>
+      </c>
+      <c r="E54" s="3">
         <v>469300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>475400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>330800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>353100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>293000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>430700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>444900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>423000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>258500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>219300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>220400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>187300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>143300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>121700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>74000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>50400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>75600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>76700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3253,8 +3382,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3276,362 +3406,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2300</v>
       </c>
       <c r="F57" s="3">
         <v>2300</v>
       </c>
       <c r="G57" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3">
         <v>2500</v>
       </c>
       <c r="I57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J57" s="3">
         <v>3200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>4100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4900</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E58" s="3">
         <v>12300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>60400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>29400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>46900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>266200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>13400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>12100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>12900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5200</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E59" s="3">
         <v>17900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>24100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>30700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E60" s="3">
         <v>32200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>107100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>53100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>25400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>28600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>297000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>20000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E61" s="3">
         <v>221400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>229500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>90200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>145700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>99300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>261800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>262100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>117000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>80500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>84300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>91800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>72500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>58400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>18000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E62" s="3">
         <v>18700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>19800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34100</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3">
         <v>5700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3689,8 +3838,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3748,8 +3900,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3807,67 +3962,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>260600</v>
+      </c>
+      <c r="E66" s="3">
         <v>272300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>284300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>221400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>227900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>158800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>290500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>339100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>329300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>154200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>120600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>114400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>114500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>96100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>83100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>39900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>36700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3889,8 +4050,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3948,8 +4110,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4007,22 +4172,25 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E70" s="3">
         <v>86400</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>102500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>16100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>13500</v>
       </c>
       <c r="H70" s="3">
         <v>13500</v>
@@ -4031,11 +4199,11 @@
         <v>13500</v>
       </c>
       <c r="J70" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K70" s="3">
         <v>18100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -4046,14 +4214,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1700</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4066,8 +4234,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4125,67 +4296,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-317800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-328100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-336800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-343700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-345400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-325400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-322600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>-307800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-303300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-296600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-289100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-283200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-284000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-284300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>-275800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-278200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4243,8 +4420,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4302,8 +4482,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4361,67 +4544,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E76" s="3">
         <v>110700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>88600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>93200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>111700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>120700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>126700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>87700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>93700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>104300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>98700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>106100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>38600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4479,131 +4668,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42369</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42185</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42004</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4625,8 +4823,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4651,11 +4850,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4663,29 +4862,32 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>2300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>400</v>
       </c>
       <c r="U83" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4743,8 +4945,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4802,8 +5007,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4861,8 +5069,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4920,8 +5131,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4979,67 +5193,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E89" s="3">
         <v>19500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5061,67 +5281,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-101000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-17300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-98300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-90900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-43000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48800</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-6500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5179,8 +5403,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5238,67 +5465,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-143100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-90800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>170000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-42800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-55900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-22300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>21400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5320,8 +5553,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5379,8 +5613,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5438,8 +5675,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5497,8 +5737,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5556,67 +5799,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>141000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>70500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-164600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>43100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>83400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>58500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>20700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>47200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-19900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5662,75 +5911,81 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-7200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOPS_QTR_FIN.xlsx
@@ -5294,7 +5294,7 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-101000</v>
+        <v>-216600</v>
       </c>
       <c r="G91" s="3">
         <v>-17300</v>
